--- a/owlcms/src/main/resources/templates/records/exportSheets.xlsx
+++ b/owlcms/src/main/resources/templates/records/exportSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EDF4C8-2E85-4A03-BA84-B1A1D53EDC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330BC1F6-0680-4841-97D6-CC60346C3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="2535" windowWidth="22485" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="P2")
-jx:each(items="agegroups" var="ag" multisheet="ag.key" lastCell="P2")</t>
+          <t>jx:area(lastCell="Q2")
+jx:each(items="agegroups" var="ag" multisheet="ag.key" lastCell="Q2")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:each(items="ag.value" var="r" lastCell="P2")</t>
+          <t>jx:each(items="ag.value" var="r" lastCell="Q2")</t>
         </r>
       </text>
     </comment>
